--- a/data_raw/DER_dict.xlsx
+++ b/data_raw/DER_dict.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia.christensen/Desktop/MAX PLANCK STUDIES/0419_Flying Steps/FlyingSteps_Implementation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\DER\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4A9E08-2C03-5B45-90D7-312670AE84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E377FD4-6D76-4E8B-9034-D193BDE7DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DER" sheetId="1" r:id="rId1"/>
-    <sheet name="Stimuli Selection" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>key</t>
   </si>
@@ -107,9 +94,6 @@
     <t>Weiter</t>
   </si>
   <si>
-    <t>Du hast {{num_correct}} von {{num_question}} Fragen richtig beantwortet.</t>
-  </si>
-  <si>
     <t>Dein Testergebnis</t>
   </si>
   <si>
@@ -137,21 +121,12 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>You have completed the Emotion Discrimination Test.</t>
-  </si>
-  <si>
-    <t>You answered {{num_correct}} out of {{num_question}} questions correctly.</t>
-  </si>
-  <si>
     <t>Your score</t>
   </si>
   <si>
     <t>Score</t>
   </si>
   <si>
-    <t>Please listen to the following clips and select which one sounds **{{emotion}}** to you. Select 1 for the clip heard before the beep, or 2 for the clip heard after the beep.</t>
-  </si>
-  <si>
     <t>GOBACK</t>
   </si>
   <si>
@@ -215,9 +190,6 @@
     <t>Die ID ist leider ungültig. Bitte versuchen Sie es noch mal.</t>
   </si>
   <si>
-    <t>Sie haben {{num_correct}} von {{num_question}} Fragen richtig beantwortet.</t>
-  </si>
-  <si>
     <t>Ihr Testergebnis</t>
   </si>
   <si>
@@ -230,9 +202,6 @@
     <t>NO_VIDEO</t>
   </si>
   <si>
-    <t>Bitte schauen Sie sich die folgenden kurzen Tänze an und entscheiden Sie, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wählen sie dafür 1 der Gefühle in der Liste.</t>
-  </si>
-  <si>
     <t>ANGER</t>
   </si>
   <si>
@@ -245,9 +214,6 @@
     <t>SADNESS</t>
   </si>
   <si>
-    <t>Bitte schau Dir die folgenden kurzen Tänze an und entscheide, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wähle 1 der Gefühle in der Liste.</t>
-  </si>
-  <si>
     <t>Du hast **{{accuracy}} %** der Gefühle richtig erkannt.</t>
   </si>
   <si>
@@ -303,12 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">You'll see short videos of dance movements. Your task will be to guess which emotion the dancer wanted to express while dancing. Anger, joy, fear or sadness. If you're unsure, just take your best guess. </t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Sie werden gleich ein kurzes Tanzvideo sehen und Ihre Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Sie sich nicht sicher sind, dann raten Sie einfach so gut Sie können. \\ Zuerst werden Sie 2 Beispiele sehen und dann eine Übungsaufgabe machen.</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Du wirst gleich ein kurzes Tanzvideo sehen und Deine Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Du Dir nicht sicher bist, dann rate einfach so gut Du kannst. \\ Zuerst wirst Du 2 Beispiele sehen und dann eine Übungsaufgabe machen.</t>
   </si>
   <si>
     <t>&lt;h4&gt;Welcome to the practice of the Dance Emotion Recognition Task&lt;/h4&gt;  You'll see one short dance video. Your task will be to guess which emotion the dancer wanted to express while dancing. Anger, joy, fear or sadness. If you're unsure, just take your best guess.  \\ First, you’ll watch 2 examples and then do 1 practice question.</t>
@@ -355,6 +315,42 @@
   </si>
   <si>
     <t>Traurigkeit</t>
+  </si>
+  <si>
+    <t>Please watch the following clip and select which emotion the dancer expresses.</t>
+  </si>
+  <si>
+    <t>Bitte schauen Sie sich die folgenden kurzen Tänze an und entscheiden Sie, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wählen Sie dafür eins der Gefühle aus der Liste.</t>
+  </si>
+  <si>
+    <t>Bitte schau Dir die folgenden kurzen Tänze an und entscheide, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wähle eins der Gefühle aus der Liste.</t>
+  </si>
+  <si>
+    <t>You have completed the Dance Emotion Recognition Test.</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Du wirst gleich ein kurzes Tanzvideo sehen und Deine Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Du Dir nicht sicher bist, dann rate einfach so gut Du kannst. \\ Zuerst wirst Du zwei Beispiele sehen und dann eine Übungsaufgabe machen.</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Sie werden gleich ein kurzes Tanzvideo sehen und Ihre Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Sie sich nicht sicher sind, dann raten Sie einfach so gut Sie können. \\ Zuerst werden Sie zwei Beispiele sehen und dann eine Übungsaufgabe machen.</t>
+  </si>
+  <si>
+    <t>SAMPLE_PROGRESS_TEXT</t>
+  </si>
+  <si>
+    <t>Beispielfrage {{num_question}} von {{test_length}}</t>
+  </si>
+  <si>
+    <t>Beispielfrage  {{num_question}} von {{test_length}}</t>
+  </si>
+  <si>
+    <t>Du hast {{num_correct}} von {{num_questions}} Fragen richtig beantwortet.</t>
+  </si>
+  <si>
+    <t>Sie haben {{num_correct}} von {{num_questions}} Fragen richtig beantwortet.</t>
+  </si>
+  <si>
+    <t>You answered {{num_correct}} out of {{num_questions}} questions correctly.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +409,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,13 +430,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>225926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -467,7 +463,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -486,11 +482,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="203200" cy="225926"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="dimg_11" descr="coon voor Geverifieerd door de community">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8CC98A-54AD-4AAB-A5D2-130989F979B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11107615" y="2117481"/>
+          <a:ext cx="203200" cy="225926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,21 +833,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
     <col min="2" max="3" width="55" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,41 +855,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -853,387 +900,389 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA9ACA1-D7D4-024D-B452-684FBF9F6F3C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data_raw/DER_dict.xlsx
+++ b/data_raw/DER_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\DER\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E377FD4-6D76-4E8B-9034-D193BDE7DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7367FE-1320-4E04-9292-988E07B9D835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
   <si>
     <t>key</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>You answered {{num_correct}} out of {{num_questions}} questions correctly.</t>
+  </si>
+  <si>
+    <t>Example  question {{num_question}} out of {{test_length}}</t>
   </si>
 </sst>
 </file>
@@ -835,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>104</v>
       </c>
@@ -914,7 +917,7 @@
         <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">

--- a/data_raw/DER_dict.xlsx
+++ b/data_raw/DER_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\DER\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7367FE-1320-4E04-9292-988E07B9D835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A24326C-1B7D-4614-84D4-E14AFBA2890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
   <si>
     <t>key</t>
   </si>
@@ -148,9 +148,6 @@
     <t>TRANSITION</t>
   </si>
   <si>
-    <t>PRACTICE1</t>
-  </si>
-  <si>
     <t>INCORRECT</t>
   </si>
   <si>
@@ -274,24 +271,6 @@
     <t>&lt;h4&gt;Welcome to the practice of the Dance Emotion Recognition Task&lt;/h4&gt;  You'll see one short dance video. Your task will be to guess which emotion the dancer wanted to express while dancing. Anger, joy, fear or sadness. If you're unsure, just take your best guess.  \\ First, you’ll watch 2 examples and then do 1 practice question.</t>
   </si>
   <si>
-    <t xml:space="preserve">In this video the dancer wanted to express joy. So the correct answer would have been 2. </t>
-  </si>
-  <si>
-    <t>In diesem Video wollte die Tänzerin Freude ausdrücken. Die richtige Antwort wäre also Nummer 2. Sie können es gerne noch einmal anschauen, bevor Sie fortfahren.</t>
-  </si>
-  <si>
-    <t>In diesem Video wollte die Tänzerin Freude ausdrücken. Die richtige Antwort wäre also Nummer 2. Du kannst es gerne noch einmal anschauen, bevor du fortfährst.</t>
-  </si>
-  <si>
-    <t>**Übungsfrage** \\ Bitte schauen Sie sich das folgende Tanzvideo an und wählen Sie aus, welches Gefühl die Tänzerin für Sie ausdrückt. \\ Wählen Sie 1 der Gefühle aus der Liste.</t>
-  </si>
-  <si>
-    <t>**Übungsfrage** \\ Bitte schau Dir das folgende Tanzvideo an und wähle aus, welches Gefühl die Tänzerin für Dich ausdrückt. \\ Wähle 1 der Gefühle aus der Liste.</t>
-  </si>
-  <si>
-    <t>**Practice question** \\ Please watch the following dance video and select which emotion you think the dancer is expressing. \\ Select one of the emotions in the list.</t>
-  </si>
-  <si>
     <t>**{{feedback}}** \\ Klicke auf 'Zurück', um die Anweisungen erneut zu lesen und das Übungsvideo erneut zu sehen, oder klicke auf 'Weiter', um zum  Haupttest zu gelangen.</t>
   </si>
   <si>
@@ -301,59 +280,74 @@
     <t xml:space="preserve">**{{feedback}}** \\ Press ‘Go back’ to read the instructions and do the practice  again, or press ‘Continue’ to continue to the main test. </t>
   </si>
   <si>
-    <t xml:space="preserve">Die Tänzerin möchte eins dieser Gefühle ausdrücken: Wut, Freude, Angst oder Traurikeit. Achte auf die Körpersprache. In diesem Fall ist es Wut. 
+    <t>The dancer wants to transmit one of these emotions: anger, joy, fear or sadness. Pay attention to her body language. Which emotion is being expressed? In this case, it is anger.</t>
+  </si>
+  <si>
+    <t>Freude</t>
+  </si>
+  <si>
+    <t>Angst</t>
+  </si>
+  <si>
+    <t>Traurigkeit</t>
+  </si>
+  <si>
+    <t>Please watch the following clip and select which emotion the dancer expresses.</t>
+  </si>
+  <si>
+    <t>Bitte schauen Sie sich die folgenden kurzen Tänze an und entscheiden Sie, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wählen Sie dafür eins der Gefühle aus der Liste.</t>
+  </si>
+  <si>
+    <t>Bitte schau Dir die folgenden kurzen Tänze an und entscheide, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wähle eins der Gefühle aus der Liste.</t>
+  </si>
+  <si>
+    <t>You have completed the Dance Emotion Recognition Test.</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Du wirst gleich ein kurzes Tanzvideo sehen und Deine Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Du Dir nicht sicher bist, dann rate einfach so gut Du kannst. \\ Zuerst wirst Du zwei Beispiele sehen und dann eine Übungsaufgabe machen.</t>
+  </si>
+  <si>
+    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Sie werden gleich ein kurzes Tanzvideo sehen und Ihre Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Sie sich nicht sicher sind, dann raten Sie einfach so gut Sie können. \\ Zuerst werden Sie zwei Beispiele sehen und dann eine Übungsaufgabe machen.</t>
+  </si>
+  <si>
+    <t>SAMPLE_PROGRESS_TEXT</t>
+  </si>
+  <si>
+    <t>Du hast {{num_correct}} von {{num_questions}} Fragen richtig beantwortet.</t>
+  </si>
+  <si>
+    <t>Sie haben {{num_correct}} von {{num_questions}} Fragen richtig beantwortet.</t>
+  </si>
+  <si>
+    <t>You answered {{num_correct}} out of {{num_questions}} questions correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Tänzerin möchte eins dieser Gefühle ausdrücken: Wut, Freude, Angst oder Traurigkeit. Achte auf die Körpersprache. In diesem Fall ist es Wut. 
 </t>
   </si>
   <si>
-    <t>The dancer wants to transmit one of these emotions: anger, joy, fear or sadness. Pay attention to her body language. Which emotion is being expressed? In this case, it is anger.</t>
-  </si>
-  <si>
-    <t>Freude</t>
-  </si>
-  <si>
-    <t>Angst</t>
-  </si>
-  <si>
-    <t>Traurigkeit</t>
-  </si>
-  <si>
-    <t>Please watch the following clip and select which emotion the dancer expresses.</t>
-  </si>
-  <si>
-    <t>Bitte schauen Sie sich die folgenden kurzen Tänze an und entscheiden Sie, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wählen Sie dafür eins der Gefühle aus der Liste.</t>
-  </si>
-  <si>
-    <t>Bitte schau Dir die folgenden kurzen Tänze an und entscheide, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte. Wähle eins der Gefühle aus der Liste.</t>
-  </si>
-  <si>
-    <t>You have completed the Dance Emotion Recognition Test.</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Du wirst gleich ein kurzes Tanzvideo sehen und Deine Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Du Dir nicht sicher bist, dann rate einfach so gut Du kannst. \\ Zuerst wirst Du zwei Beispiele sehen und dann eine Übungsaufgabe machen.</t>
-  </si>
-  <si>
-    <t>&lt;h4&gt;Willkommen zur Übung für den Gefühlserkennungs-Test mit Tanzbewegungen&lt;/h4&gt;  Sie werden gleich ein kurzes Tanzvideo sehen und Ihre Aufgabe wird sein, zu erraten, welches Gefühl die Tänzerin mit ihren Bewegungen ausdrücken möchte: Wut, Freude, Angst oder Traurigkeit. Wenn Sie sich nicht sicher sind, dann raten Sie einfach so gut Sie können. \\ Zuerst werden Sie zwei Beispiele sehen und dann eine Übungsaufgabe machen.</t>
-  </si>
-  <si>
-    <t>SAMPLE_PROGRESS_TEXT</t>
-  </si>
-  <si>
-    <t>Beispielfrage {{num_question}} von {{test_length}}</t>
-  </si>
-  <si>
-    <t>Beispielfrage  {{num_question}} von {{test_length}}</t>
-  </si>
-  <si>
-    <t>Du hast {{num_correct}} von {{num_questions}} Fragen richtig beantwortet.</t>
-  </si>
-  <si>
-    <t>Sie haben {{num_correct}} von {{num_questions}} Fragen richtig beantwortet.</t>
-  </si>
-  <si>
-    <t>You answered {{num_correct}} out of {{num_questions}} questions correctly.</t>
-  </si>
-  <si>
-    <t>Example  question {{num_question}} out of {{test_length}}</t>
+    <t>In diesem Video wollte die Tänzerin Freude ausdrücken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this video the dancer wanted to express joy. </t>
+  </si>
+  <si>
+    <t>PRACTICE_INSTRUCTION</t>
+  </si>
+  <si>
+    <t>Bitte schau Dir das folgende Tanzvideo an und wähle aus, welches Gefühl die Tänzerin für Dich ausdrückt. \\ Wähle eins der Gefühle aus der Liste.</t>
+  </si>
+  <si>
+    <t>Bitte schauen Sie sich das folgende Tanzvideo an und wählen Sie aus, welches Gefühl die Tänzerin für Sie ausdrückt. \\ Wählen Sie eins der Gefühle aus der Liste.</t>
+  </si>
+  <si>
+    <t>Please watch the following dance video and select which emotion you think the dancer is expressing. \\ Select one of the emotions in the list.</t>
+  </si>
+  <si>
+    <t>**Übungsfrage**</t>
+  </si>
+  <si>
+    <t>**Practice Question**</t>
   </si>
 </sst>
 </file>
@@ -439,8 +433,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>225926</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35426</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -838,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -869,13 +863,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -883,13 +877,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -906,32 +900,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -939,13 +933,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>27</v>
@@ -981,10 +975,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -992,58 +986,58 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1054,7 +1048,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
@@ -1068,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
@@ -1093,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1107,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1121,13 +1115,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>33</v>
@@ -1166,7 +1160,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1177,13 +1171,13 @@
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -1191,41 +1185,41 @@
         <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1233,41 +1227,41 @@
         <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1275,13 +1269,13 @@
         <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
